--- a/Datos/Database by set/Set with text box/Xlsx sets/Planeshift Promos (PPLS).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Planeshift Promos (PPLS).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,49 +444,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ὁ πλανώμενος Φελδδαγρίφος</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>{1}{G}{W}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Θηρίον — Φελδδαγρίφος</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>{G}: Ὁ πλανώμενος Φελδδαγρίφος δέχεται +1/+1 μέχρι τὸ μέρος ἐτελέσθη. Ὁ ἐναντίος παίξω τήν 1/1 γνώμην χλωροῦ θηριοῦ ἱπποποτάμου.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>{W}: Ὁ πλανώμενος Φελδδαγρίφος δέχεται τὴν φυλάχα ἀπὸ μέλανος χαὶ πυρροῦ μέχρι τὸ μέρος ἐτελέσθη. Ὁ ἐναντίος δέχεται τοῦς 2 βίους.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>{U}: Ὁ πλανώμενος Φελδδαγρίφος χερδαίνει τὴν πτῆσιν μέχρι τὸ μέρος ἐτελέσθη. Ὁ ἐναντίος ἔαι ἀναλέγειν τὸν βιβλίον.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4/4</t>
+          <t>('Ὁ πλανώμενος Φελδδαγρίφος', ['{1}{G}{W}{U}', 'Θηρίον — Φελδδαγρίφος', '{G}: Ὁ πλανώμενος Φελδδαγρίφος δέχεται +1/+1 μέχρι τὸ μέρος ἐτελέσθη. Ὁ ἐναντίος παίξω τήν 1/1 γνώμην χλωροῦ θηριοῦ ἱπποποτάμου.', '{W}: Ὁ πλανώμενος Φελδδαγρίφος δέχεται τὴν φυλάχα ἀπὸ μέλανος χαὶ πυρροῦ μέχρι τὸ μέρος ἐτελέσθη. Ὁ ἐναντίος δέχεται τοῦς 2 βίους.', '{U}: Ὁ πλανώμενος Φελδδαγρίφος χερδαίνει τὴν πτῆσιν μέχρι τὸ μέρος ἐτελέσθη. Ὁ ἐναντίος ἔαι ἀναλέγειν τὸν βιβλίον.', '4/4'])</t>
         </is>
       </c>
     </row>
